--- a/applies/store.xlsx
+++ b/applies/store.xlsx
@@ -422,14 +422,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="26" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="53" customWidth="1" min="7" max="7"/>
-    <col width="40" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="43" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
     <col width="23" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
@@ -488,22 +488,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>apl_test</t>
+          <t>apl_Klick</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Frontend Developer</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TechNova Solutions</t>
+          <t>Klick</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Berlin, Germany</t>
+          <t>Remote / United Kingdom</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -511,29 +511,21 @@
           <t>Full-time</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>€65,000/year</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.technova.com/careers/frontend-developer</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>123 Innovation Street, Berlin, Germany</t>
+          <t>Cambridge, Cambridgeshire, United Kingdom</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Pending Review</t>
+          <t>Applied</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Sun Oct 12 2025 14:30</t>
+          <t>Mon Nov 10 2025 20:48</t>
         </is>
       </c>
     </row>
